--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/T Natarajan.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/T Natarajan.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,9 +520,114 @@
         <v>Kings XI won by 12 runs</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>T Natarajan</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>-</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>T Natarajan</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Oct 13 2020</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>T Natarajan</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>75.00</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Sep 21 2020</v>
+      </c>
+      <c r="K7" t="str">
+        <v>RCB won by 10 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
   </ignoredErrors>
 </worksheet>
 </file>